--- a/medicine/Enfance/François_Avril_(dessinateur)/François_Avril_(dessinateur).xlsx
+++ b/medicine/Enfance/François_Avril_(dessinateur)/François_Avril_(dessinateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Avril_(dessinateur)</t>
+          <t>François_Avril_(dessinateur)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Avril, né le 14 mai 1961 à Paris, est un artiste, dessinateur et auteur de bande dessinée français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Avril_(dessinateur)</t>
+          <t>François_Avril_(dessinateur)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé de l'École nationale supérieure des arts appliqués et des métiers d'art (Olivier de Serres), dont il sort major en 1984, François Avril commence sa carrière en tant qu'illustrateur pour la presse magazine, la publicité et l'édition[1].
-Âgé de 23 ans, il publie ses premières histoires dans Je bouquine et collabore parallèlement avec la presse-magazine et l’édition. Ses dessins illustrent régulièrement les colonnes de Libération, Lire, The New Yorker etc[2]. 
-Auteur peu prolifique de bande dessinée, François Avril s'en réclame pourtant dans son oeuvre picturale[3]. Le style de François Avril est hérité de la ligne claire. Ses sujets sont essentiellement urbains (Paris, Tokyo, Bruxelles et New York). Mais depuis 2006, à l'occasion de l'exposition Dinard, François Avril s'inspire des paysages, et en particulier ceux de la côte bretonne. La nature est depuis plus importante dans son œuvre, si bien qu'il propose en 2019 une exposition sur le thème des paysages et de la promenade, au Château Beychevelle[4].
-En 2012, les Rencontres Chaland à Nérac font de François Avril l'invité d'honneur de leur 5e édition ; une rétrospective de son œuvre est alors présentée[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé de l'École nationale supérieure des arts appliqués et des métiers d'art (Olivier de Serres), dont il sort major en 1984, François Avril commence sa carrière en tant qu'illustrateur pour la presse magazine, la publicité et l'édition.
+Âgé de 23 ans, il publie ses premières histoires dans Je bouquine et collabore parallèlement avec la presse-magazine et l’édition. Ses dessins illustrent régulièrement les colonnes de Libération, Lire, The New Yorker etc. 
+Auteur peu prolifique de bande dessinée, François Avril s'en réclame pourtant dans son oeuvre picturale. Le style de François Avril est hérité de la ligne claire. Ses sujets sont essentiellement urbains (Paris, Tokyo, Bruxelles et New York). Mais depuis 2006, à l'occasion de l'exposition Dinard, François Avril s'inspire des paysages, et en particulier ceux de la côte bretonne. La nature est depuis plus importante dans son œuvre, si bien qu'il propose en 2019 une exposition sur le thème des paysages et de la promenade, au Château Beychevelle.
+En 2012, les Rencontres Chaland à Nérac font de François Avril l'invité d'honneur de leur 5e édition ; une rétrospective de son œuvre est alors présentée.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Avril_(dessinateur)</t>
+          <t>François_Avril_(dessinateur)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,18 +561,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums de bande dessinée
-1985 : Sauve qui peut, sur scénario de Charles Berberian, éd. Carton
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1985 : Sauve qui peut, sur scénario de Charles Berberian, éd. Carton
 1986 : Doppelgänger-SA, collection Atomium 58, éd. Magic Strip
 1986 : Le voleur de ballerines, scénario Yann, éd. Carton
 1989 : Soirs de Paris, scénario Philippe Petit-Roulet, collection Les yeux dans la tête, éd. Les Humanoïdes Associés
 1989 : El rebelde,le rebelle, dessins de Cyril Cabry, collection X, éd. Futuropolis
 1989 : Le chemin des trois places, scénario Jean-Claude Götting, éd. Futuropolis
 2004 : Le voleur de ballerines, scénario Yann, réédition nouvelle couverture, mise en page remaniée, nouveaux dessins et colorisation de l'intégralité de l'album, éd. Albin Michel
-2005 : Le Chronatoscaphe (collectif) , Nato[6]
-2012 : Soirs de Paris, scénario Philippe Petit-Roulet, réédition de luxe en grand format tiré à 1500 exemplaires numérotés, nouvelle mise en couleur de la couverture, éd. Les Humanoïdes Associés
-Ouvrages illustrés
-1990 : Intérieurs d'auteurs, collection Affaires Intérieures, éd. Comixland
+2005 : Le Chronatoscaphe (collectif) , Nato
+2012 : Soirs de Paris, scénario Philippe Petit-Roulet, réédition de luxe en grand format tiré à 1500 exemplaires numérotés, nouvelle mise en couleur de la couverture, éd. Les Humanoïdes Associés</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Avril_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Avril_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages illustrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1990 : Intérieurs d'auteurs, collection Affaires Intérieures, éd. Comixland
 1995 : Café Bar, éd. Alain Beaulet
 1995 : Gloria, éd. L'Atelier Médicis, 300 ex Nté Signés, illustrations en sérigraphie 17 passages, 32 pages.
 1997 : Femmes, éd. Pie Book et Reporter
@@ -570,21 +623,160 @@
 2007 : Cinéma, collection les Petits carnets, éd. Alain Beaulet
 2008 : Art, éd. Alain Beaulet
 2009 : La Fresque, éd. Champaka, 450 ex. signés numérotés, reprend sous la forme d'un leporello la fresque exposée aux Musées Royaux des Beaux-arts de Bruxelles
-2022: L'ile des morts, éd. Barbier &amp; Mathon, Tirage limité à 270 exemplaires, numérotés et accompagnés par une Digigraphie inédite signée et numérotée par François Avril et Philippe Druillet[7].
-Illustrations d'histoires et romans pour la jeunesse
-Éditions
-1997 : Ohé! Capitaine Olivier!, texte de Odile Hellmann-Hurpoil, éd. Nathan
+2022: L'ile des morts, éd. Barbier &amp; Mathon, Tirage limité à 270 exemplaires, numérotés et accompagnés par une Digigraphie inédite signée et numérotée par François Avril et Philippe Druillet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>François_Avril_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Avril_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrations d'histoires et romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1997 : Ohé! Capitaine Olivier!, texte de Odile Hellmann-Hurpoil, éd. Nathan
 1998 : Le soir du grand match, texte de Hubert Ben Kemoun, collection Aventure, éd. Nathan Poche
-2002 : Le marchand de bruits, texte de Anna Rozen, éd. Nathan
-Illustrations de nouvelles, poèmes et romans
-1992 : Le duplex, roman de Jean Claude Götting, couverture + 22 dessins en têtes de chapitres, éd. Le Castor Astral
+2002 : Le marchand de bruits, texte de Anna Rozen, éd. Nathan</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>François_Avril_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Avril_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustrations de nouvelles, poèmes et romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1992 : Le duplex, roman de Jean Claude Götting, couverture + 22 dessins en têtes de chapitres, éd. Le Castor Astral
 1996 : Les cahiers de Pierre Mac Orlan no 10 : Le sport, forme moderne de la fête, Textes de Pierre Mac Orlan, 16 illustrations, éd. Prima Linea
-2012 : Poèmes de Victor Hugo, sélection de Benoît Marchon, 29 illustrations, éd. Bayard Jeunesse
-Recueils d'illustrations et travaux publicitaires
-2006 : Paris, Tokyo, New York, Bruxelles, éd. Champaka
-2012 : Artbook, recueil de dessins, peintures, gravures et esquisses, éd. du Chêne
-Filmographie
-1995 : Il était une fois…, adaptation de La Petite Fille aux allumettes</t>
+2012 : Poèmes de Victor Hugo, sélection de Benoît Marchon, 29 illustrations, éd. Bayard Jeunesse</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>François_Avril_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Avril_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils d'illustrations et travaux publicitaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2006 : Paris, Tokyo, New York, Bruxelles, éd. Champaka
+2012 : Artbook, recueil de dessins, peintures, gravures et esquisses, éd. du Chêne</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>François_Avril_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Avril_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1995 : Il était une fois…, adaptation de La Petite Fille aux allumettes</t>
         </is>
       </c>
     </row>
